--- a/runs.xlsx
+++ b/runs.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/UK45110465/git/typescript-compliation-benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA6AE3B6-308F-734A-9AFF-1E5000ED36AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD2B698-BCD6-6D46-857D-68890AE0EB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20420" xr2:uid="{84CB0BCE-8DAD-7C43-8A58-F2E6AACB8C4F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1000" sheetId="1" r:id="rId1"/>
+    <sheet name="100" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="output_1" localSheetId="0">Sheet1!$A$1:$C$17</definedName>
+    <definedName name="output_1" localSheetId="1">'100'!$A$1:$D$31</definedName>
+    <definedName name="output_1" localSheetId="0">'1000'!$A$1:$C$17</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -47,11 +49,21 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="2" xr16:uid="{E3AE5446-52BC-EA41-8D47-9728A0FBDDAC}" name="output1" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/UK45110465/git/typescript-compliation-benchmark/output.csv" comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>partialState.ts</t>
   </si>
@@ -60,6 +72,12 @@
   </si>
   <si>
     <t>pickInterfaceState.ts</t>
+  </si>
+  <si>
+    <t>seperateInterfaces.ts</t>
+  </si>
+  <si>
+    <t>More than this caused a OOM</t>
   </si>
 </sst>
 </file>
@@ -169,7 +187,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$1</c:f>
+              <c:f>'1000'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -190,9 +208,12 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:f>'1000'!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -259,7 +280,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>'1000'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -280,9 +301,12 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$17</c:f>
+              <c:f>'1000'!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -349,7 +373,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>'1000'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -370,9 +394,12 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$17</c:f>
+              <c:f>'1000'!$C$2:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -435,8 +462,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -635,6 +663,785 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>partialState.ts</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'100'!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1.5964458868</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6331018819400001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5991102859599899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.63663980296</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7048218661400001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7336826863799999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7721341716599901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.81850096348</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8338333763800001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8721279605000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.93928547844</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9934965930999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.01419880572</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0227740841799902</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.112545925</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2871736726599998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.4176127841000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1700605235399899</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.21695554222</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.5504165317599998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.6218020699800002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.6029573292399899</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.7428462361200001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7769953062199999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.8827563885599998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.8869405089</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.0347668580599998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.9332765697399998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.1713488179199998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.6345390292399999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C3C0-BC4A-9CA4-0FCA244DB74B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>partialTypedState.ts</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'100'!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1.5985151609999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6466603255399901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6367614636600001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6240356173599999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7217074243399999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7444751756800001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.76673069376</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8044377517800001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.84633418328</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8775851433999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.93002473844</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9524948187</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.01120395402</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.03456432108</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2407376467</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.3219318723599902</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.4453908033</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1632913172400001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.23664596912</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.6719438924599999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5732371646800001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.6405269499399999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.80468446702</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.77576388281999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.86674732815999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.9722311893</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.91435072136</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.9741870912399899</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.7924448583200001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.58968345614</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C3C0-BC4A-9CA4-0FCA244DB74B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pickInterfaceState.ts</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'100'!$C$2:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1.53798383349999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6032393388399999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.57609910066</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6879579596599901</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6268142970399999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6718377127799999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.68301181576</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7192282102800001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.77065233078</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7962723589</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7968464986399899</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.84183981589999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8820820067199999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.89864341818</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0974370419000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0996996193599999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0546315651999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.99349418913999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9995895178200001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.1847070453599899</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.3449008407799998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.4514834669400001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.4480992214200001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.56035695121999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.56846688666</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5726053467999899</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.60828647315999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.4895215351400002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.2322474679200002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.2061528655399898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C3C0-BC4A-9CA4-0FCA244DB74B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>seperateInterfaces.ts</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'100'!$D$2:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1.5880791721</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4907705924400001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.52989076276</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.67694382876</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5983275322399999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.63702225568</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.67903647306</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6914829300800001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7119124945799999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7209854338999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.75528624044</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7672076846</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8183487216200001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.81211338837999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0607136034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0282542439600002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8976737309</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.98751869373999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.90628084851999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9805078324600001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2063339803800002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.3933457468400001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.32318143572</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.35161451372</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4144169438600001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4425435075999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.4304260927599999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.2348321741399899</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.0971991855200001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.1069206627399999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C3C0-BC4A-9CA4-0FCA244DB74B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1349316544"/>
+        <c:axId val="1349318192"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1349316544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1349318192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1349318192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1349316544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -675,7 +1482,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1232,8 +2595,53 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58281380-10E9-E445-B804-7A70A509AE18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="output_1" connectionId="1" xr16:uid="{38D66453-6B29-904F-AD47-6A3C7D8C3FA3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="output_1" connectionId="2" xr16:uid="{4C837367-36C9-AA49-8866-F98ADDBC06E3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1533,10 +2941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8357BAF5-2A28-8042-BE09-8D323C8645EC}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1733,6 +3141,467 @@
         <v>29.41692771612</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F61BB2-C5CA-A547-AABC-563DEF522FEA}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1.5964458868</v>
+      </c>
+      <c r="B2">
+        <v>1.5985151609999999</v>
+      </c>
+      <c r="C2">
+        <v>1.53798383349999</v>
+      </c>
+      <c r="D2">
+        <v>1.5880791721</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1.6331018819400001</v>
+      </c>
+      <c r="B3">
+        <v>1.6466603255399901</v>
+      </c>
+      <c r="C3">
+        <v>1.6032393388399999</v>
+      </c>
+      <c r="D3">
+        <v>1.4907705924400001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1.5991102859599899</v>
+      </c>
+      <c r="B4">
+        <v>1.6367614636600001</v>
+      </c>
+      <c r="C4">
+        <v>1.57609910066</v>
+      </c>
+      <c r="D4">
+        <v>1.52989076276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1.63663980296</v>
+      </c>
+      <c r="B5">
+        <v>1.6240356173599999</v>
+      </c>
+      <c r="C5">
+        <v>1.6879579596599901</v>
+      </c>
+      <c r="D5">
+        <v>1.67694382876</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1.7048218661400001</v>
+      </c>
+      <c r="B6">
+        <v>1.7217074243399999</v>
+      </c>
+      <c r="C6">
+        <v>1.6268142970399999</v>
+      </c>
+      <c r="D6">
+        <v>1.5983275322399999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1.7336826863799999</v>
+      </c>
+      <c r="B7">
+        <v>1.7444751756800001</v>
+      </c>
+      <c r="C7">
+        <v>1.6718377127799999</v>
+      </c>
+      <c r="D7">
+        <v>1.63702225568</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1.7721341716599901</v>
+      </c>
+      <c r="B8">
+        <v>1.76673069376</v>
+      </c>
+      <c r="C8">
+        <v>1.68301181576</v>
+      </c>
+      <c r="D8">
+        <v>1.67903647306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1.81850096348</v>
+      </c>
+      <c r="B9">
+        <v>1.8044377517800001</v>
+      </c>
+      <c r="C9">
+        <v>1.7192282102800001</v>
+      </c>
+      <c r="D9">
+        <v>1.6914829300800001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1.8338333763800001</v>
+      </c>
+      <c r="B10">
+        <v>1.84633418328</v>
+      </c>
+      <c r="C10">
+        <v>1.77065233078</v>
+      </c>
+      <c r="D10">
+        <v>1.7119124945799999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1.8721279605000001</v>
+      </c>
+      <c r="B11">
+        <v>1.8775851433999999</v>
+      </c>
+      <c r="C11">
+        <v>1.7962723589</v>
+      </c>
+      <c r="D11">
+        <v>1.7209854338999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1.93928547844</v>
+      </c>
+      <c r="B12">
+        <v>1.93002473844</v>
+      </c>
+      <c r="C12">
+        <v>1.7968464986399899</v>
+      </c>
+      <c r="D12">
+        <v>1.75528624044</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1.9934965930999999</v>
+      </c>
+      <c r="B13">
+        <v>1.9524948187</v>
+      </c>
+      <c r="C13">
+        <v>1.84183981589999</v>
+      </c>
+      <c r="D13">
+        <v>1.7672076846</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2.01419880572</v>
+      </c>
+      <c r="B14">
+        <v>2.01120395402</v>
+      </c>
+      <c r="C14">
+        <v>1.8820820067199999</v>
+      </c>
+      <c r="D14">
+        <v>1.8183487216200001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2.0227740841799902</v>
+      </c>
+      <c r="B15">
+        <v>2.03456432108</v>
+      </c>
+      <c r="C15">
+        <v>1.89864341818</v>
+      </c>
+      <c r="D15">
+        <v>1.81211338837999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2.112545925</v>
+      </c>
+      <c r="B16">
+        <v>2.2407376467</v>
+      </c>
+      <c r="C16">
+        <v>2.0974370419000001</v>
+      </c>
+      <c r="D16">
+        <v>2.0607136034</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2.2871736726599998</v>
+      </c>
+      <c r="B17">
+        <v>2.3219318723599902</v>
+      </c>
+      <c r="C17">
+        <v>2.0996996193599999</v>
+      </c>
+      <c r="D17">
+        <v>2.0282542439600002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2.4176127841000001</v>
+      </c>
+      <c r="B18">
+        <v>2.4453908033</v>
+      </c>
+      <c r="C18">
+        <v>2.0546315651999998</v>
+      </c>
+      <c r="D18">
+        <v>1.8976737309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2.1700605235399899</v>
+      </c>
+      <c r="B19">
+        <v>2.1632913172400001</v>
+      </c>
+      <c r="C19">
+        <v>1.99349418913999</v>
+      </c>
+      <c r="D19">
+        <v>1.98751869373999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2.21695554222</v>
+      </c>
+      <c r="B20">
+        <v>2.23664596912</v>
+      </c>
+      <c r="C20">
+        <v>1.9995895178200001</v>
+      </c>
+      <c r="D20">
+        <v>1.90628084851999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2.5504165317599998</v>
+      </c>
+      <c r="B21">
+        <v>2.6719438924599999</v>
+      </c>
+      <c r="C21">
+        <v>2.1847070453599899</v>
+      </c>
+      <c r="D21">
+        <v>1.9805078324600001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2.6218020699800002</v>
+      </c>
+      <c r="B22">
+        <v>2.5732371646800001</v>
+      </c>
+      <c r="C22">
+        <v>2.3449008407799998</v>
+      </c>
+      <c r="D22">
+        <v>2.2063339803800002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2.6029573292399899</v>
+      </c>
+      <c r="B23">
+        <v>2.6405269499399999</v>
+      </c>
+      <c r="C23">
+        <v>2.4514834669400001</v>
+      </c>
+      <c r="D23">
+        <v>2.3933457468400001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2.7428462361200001</v>
+      </c>
+      <c r="B24">
+        <v>2.80468446702</v>
+      </c>
+      <c r="C24">
+        <v>2.4480992214200001</v>
+      </c>
+      <c r="D24">
+        <v>2.32318143572</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2.7769953062199999</v>
+      </c>
+      <c r="B25">
+        <v>2.77576388281999</v>
+      </c>
+      <c r="C25">
+        <v>2.56035695121999</v>
+      </c>
+      <c r="D25">
+        <v>2.35161451372</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2.8827563885599998</v>
+      </c>
+      <c r="B26">
+        <v>2.86674732815999</v>
+      </c>
+      <c r="C26">
+        <v>2.56846688666</v>
+      </c>
+      <c r="D26">
+        <v>2.4144169438600001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2.8869405089</v>
+      </c>
+      <c r="B27">
+        <v>2.9722311893</v>
+      </c>
+      <c r="C27">
+        <v>2.5726053467999899</v>
+      </c>
+      <c r="D27">
+        <v>2.4425435075999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>3.0347668580599998</v>
+      </c>
+      <c r="B28">
+        <v>2.91435072136</v>
+      </c>
+      <c r="C28">
+        <v>2.60828647315999</v>
+      </c>
+      <c r="D28">
+        <v>2.4304260927599999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2.9332765697399998</v>
+      </c>
+      <c r="B29">
+        <v>2.9741870912399899</v>
+      </c>
+      <c r="C29">
+        <v>2.4895215351400002</v>
+      </c>
+      <c r="D29">
+        <v>2.2348321741399899</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>3.1713488179199998</v>
+      </c>
+      <c r="B30">
+        <v>2.7924448583200001</v>
+      </c>
+      <c r="C30">
+        <v>2.2322474679200002</v>
+      </c>
+      <c r="D30">
+        <v>2.0971991855200001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2.6345390292399999</v>
+      </c>
+      <c r="B31">
+        <v>2.58968345614</v>
+      </c>
+      <c r="C31">
+        <v>2.2061528655399898</v>
+      </c>
+      <c r="D31">
+        <v>2.1069206627399999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/runs.xlsx
+++ b/runs.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/UK45110465/git/typescript-compliation-benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD2B698-BCD6-6D46-857D-68890AE0EB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228BEA14-EE72-AF43-9B24-27AC94B83011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20420" xr2:uid="{84CB0BCE-8DAD-7C43-8A58-F2E6AACB8C4F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20400" activeTab="2" xr2:uid="{84CB0BCE-8DAD-7C43-8A58-F2E6AACB8C4F}"/>
   </bookViews>
   <sheets>
     <sheet name="1000" sheetId="1" r:id="rId1"/>
     <sheet name="100" sheetId="2" r:id="rId2"/>
+    <sheet name="100 variable run" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="output_1" localSheetId="1">'100'!$A$1:$D$31</definedName>
@@ -41,7 +42,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{F6B2526D-27A7-5A49-85F4-11158A599A94}" name="output" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/UK45110465/git/typescript-compliation-benchmark/output.csv" comma="1">
+    <textPr sourceFile="/Users/UK45110465/git/typescript-compliation-benchmark/output.csv" comma="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -50,7 +51,7 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{E3AE5446-52BC-EA41-8D47-9728A0FBDDAC}" name="output1" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/UK45110465/git/typescript-compliation-benchmark/output.csv" comma="1">
+    <textPr sourceFile="/Users/UK45110465/git/typescript-compliation-benchmark/output.csv" comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
   <si>
     <t>partialState.ts</t>
   </si>
@@ -79,15 +80,25 @@
   <si>
     <t>More than this caused a OOM</t>
   </si>
+  <si>
+    <t>numFields</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -113,8 +124,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2601,12 +2613,12 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
@@ -2943,8 +2955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8357BAF5-2A28-8042-BE09-8D323C8645EC}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3157,7 +3169,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3606,4 +3618,349 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0211630F-D01F-E24B-A09C-0FBD0DBF28FA}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.602279239</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.590336972</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.5726904530000001</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.6260808579999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.6831201710000001</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.697769482</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.674115872</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.6100326739999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.9362737560000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.8803702200000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.661731587</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.6401823040000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.801014581</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.903889918</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.8066835489999999</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.7558486639999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.7245648200000001</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.7600848200000001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.726955829</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.7312082129999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.8093681749999999</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.9252463950000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.8320088830000001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.7116803629999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.944709815</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.937166701</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.882194846</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.7671225239999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2.0636476369999999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.979365815</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.928815213</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.877853939</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2.0520361299999998</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.0699324350000001</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.9624846979999999</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.7306598790000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.9828808760000001</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2.0053461449999999</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.8649930299999999</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.7747032199999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2.0483398199999998</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.066748773</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.8983785399999999</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.7983295500000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2.1985295300000001</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2.150853278</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.9704291199999999</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.8982795720000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.305677046</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.2729389379999998</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.0298349450000002</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.9501244710000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2.3803775219999999</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2.37472795</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.0756164799999999</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.965847474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2.4112002870000002</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2.3921833210000001</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.1216752900000002</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.97180048</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2.4274067270000002</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.449602777</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.1487199129999999</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.0072117340000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2.5804559180000002</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2.8624421940000002</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2.3461552960000001</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2.2475777670000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>31</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2.8973303850000001</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2.8927661439999999</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2.4453958440000001</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2.3490657509999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>